--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_3.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999929059608821</v>
+        <v>0.999961420058218</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990953332070334</v>
+        <v>0.9991492187604832</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999659998314365</v>
+        <v>0.9999946208126569</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999971084343829</v>
+        <v>0.9999740694498325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999844790155014</v>
+        <v>0.9999810674198075</v>
       </c>
       <c r="G2" t="n">
-        <v>6.621974124202492e-06</v>
+        <v>3.601268218982408e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008444667409516643</v>
+        <v>0.0007941669421086164</v>
       </c>
       <c r="I2" t="n">
-        <v>3.712882589035444e-05</v>
+        <v>1.256844814184381e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>4.259567180371431e-06</v>
+        <v>2.397503866845486e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.069366854065629e-05</v>
+        <v>1.261594174131962e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001432559822562675</v>
+        <v>0.00039984315576446</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002573319670037614</v>
+        <v>0.006001056756090887</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005870928925</v>
+        <v>1.000031928227682</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00268287121589719</v>
+        <v>0.006256534166097706</v>
       </c>
       <c r="P2" t="n">
-        <v>129.8502340527941</v>
+        <v>126.4632787969892</v>
       </c>
       <c r="Q2" t="n">
-        <v>194.4506527708087</v>
+        <v>191.0636975150038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_22</t>
+          <t>model_34_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999665282484886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991473921730588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.999993752838773</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999713622960008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999790371404503</v>
       </c>
       <c r="G3" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>3.12444107957693e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007958719812914183</v>
       </c>
       <c r="I3" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>1.459646539658396e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>2.647803676824324e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>1.396884165395082e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003898679397315234</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.005589670007770521</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000027700759871</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.005827633832213373</v>
       </c>
       <c r="P3" t="n">
-        <v>129.8498867766124</v>
+        <v>126.7473401046273</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.450305494627</v>
+        <v>191.3477588226419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_21</t>
+          <t>model_34_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999707605032124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991461138503814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999915195780809</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999687241287641</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.999976815362475</v>
       </c>
       <c r="G4" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.729378678563565e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007970652393988516</v>
       </c>
       <c r="I4" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>1.981446941967369e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>2.891725078820228e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>1.544934886508482e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003794841601420413</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.005224345584437887</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000024198204238</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00544675679185366</v>
       </c>
       <c r="P4" t="n">
-        <v>129.8498867766124</v>
+        <v>127.0177029438914</v>
       </c>
       <c r="Q4" t="n">
-        <v>194.450305494627</v>
+        <v>191.6181216619061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_20</t>
+          <t>model_34_3_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999742852440504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991450881530711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999879864853696</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999663196237181</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999745278061845</v>
       </c>
       <c r="G5" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.400359593163678e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007980226828150575</v>
       </c>
       <c r="I5" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>2.806952537713455e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.114042388263124e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>1.697368821017235e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003679126799446614</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004899346480055966</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000021281177338</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.005107921802757307</v>
       </c>
       <c r="P5" t="n">
-        <v>129.8498867766124</v>
+        <v>127.2746138167099</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.450305494627</v>
+        <v>191.8750325347245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_19</t>
+          <t>model_34_3_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999771900947552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991445198001834</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999827624472309</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999997107757518</v>
+        <v>0.999964228785822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999721614066212</v>
       </c>
       <c r="G6" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.129204530697405e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007985532152880347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>4.027546806855601e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.307358454002771e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>1.855056567344166e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003557354908004282</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004614330428889337</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000018877162961</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004810772028227953</v>
       </c>
       <c r="P6" t="n">
-        <v>129.8498867766124</v>
+        <v>127.5143540295377</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.450305494627</v>
+        <v>192.1147727475523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_18</t>
+          <t>model_34_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999795585861172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991440523566028</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999757214925967</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999624434621437</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999696884227016</v>
       </c>
       <c r="G7" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.908116258520355e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007989895533521683</v>
       </c>
       <c r="I7" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>5.67266283546308e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.472427085202892e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>2.0198466843746e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003425489372599082</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004368199009340525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000016917032179</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004554162284586671</v>
       </c>
       <c r="P7" t="n">
-        <v>129.8498867766124</v>
+        <v>127.7336179233237</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.450305494627</v>
+        <v>192.3340366413384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_17</t>
+          <t>model_34_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999814319714798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991437183346485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999665771516473</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999610144498757</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999670938722059</v>
       </c>
       <c r="G8" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.73324395813437e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007993013481844926</v>
       </c>
       <c r="I8" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>7.80923417392057e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.604551641601324e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>2.192737529496691e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003336325542853666</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004163224661406552</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000015366644293</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004340461754305754</v>
       </c>
       <c r="P8" t="n">
-        <v>129.8498867766124</v>
+        <v>127.9258613839903</v>
       </c>
       <c r="Q8" t="n">
-        <v>194.450305494627</v>
+        <v>192.5262801020049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_16</t>
+          <t>model_34_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999982860108628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.999143377368005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999553644743796</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999598406560575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999643137660055</v>
       </c>
       <c r="G9" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.599933624141498e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007996196255795462</v>
       </c>
       <c r="I9" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>1.042907140551106e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.713079042680481e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>2.377993091615793e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003259240001893209</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003999917029316356</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000014184737687</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004170201778224076</v>
       </c>
       <c r="P9" t="n">
-        <v>129.8498867766124</v>
+        <v>128.0859266429932</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.450305494627</v>
+        <v>192.6863453610078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_15</t>
+          <t>model_34_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999838914814434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991429564424325</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999423391922249</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999589257508036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999613995019141</v>
       </c>
       <c r="G10" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.503659499031042e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008000125411250076</v>
       </c>
       <c r="I10" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>1.347242299105825e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.7976699545482e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>2.572188418519251e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003186191601572346</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003877704861165999</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000013331187771</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004042786785061494</v>
       </c>
       <c r="P10" t="n">
-        <v>129.8498867766124</v>
+        <v>128.2100473239902</v>
       </c>
       <c r="Q10" t="n">
-        <v>194.450305494627</v>
+        <v>192.8104660420048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_14</t>
+          <t>model_34_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999845805930112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991424458114051</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999278958904443</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999581493668031</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.999958324699488</v>
       </c>
       <c r="G11" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.439333959029268e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008004891927749232</v>
       </c>
       <c r="I11" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>1.68470942536246e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.869453377245783e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>2.777081401304121e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.00031208355814165</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003793855504667077</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012760888543</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003955367787864316</v>
       </c>
       <c r="P11" t="n">
-        <v>129.8498867766124</v>
+        <v>128.297489973667</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.450305494627</v>
+        <v>192.8979086916816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_13</t>
+          <t>model_34_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999849925679392</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991417640303841</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9999126207237687</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999574753538751</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999551769294807</v>
       </c>
       <c r="G12" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.400877907862905e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008011256054313084</v>
       </c>
       <c r="I12" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>2.041613039189116e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.931771707965749e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>2.986836662464157e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003061522082891518</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003742830356645764</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012419943775</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003902170393655118</v>
       </c>
       <c r="P12" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3516526956695</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.450305494627</v>
+        <v>192.9520714136841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_23</t>
+          <t>model_34_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999985179156768</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991410798578978</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9998967269412592</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999568843829243</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999519826469759</v>
       </c>
       <c r="G13" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.383460659729015e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008017642504155563</v>
       </c>
       <c r="I13" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>2.41297058542945e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>3.986412088934149e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>3.199691337181799e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003007637194286864</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003719490099098282</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012265525433</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003877836493022846</v>
       </c>
       <c r="P13" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3766747609077</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.450305494627</v>
+        <v>192.9770934789223</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999851903491491</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991403517293647</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9998806384922965</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999563468288627</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999487892498387</v>
       </c>
       <c r="G14" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.382415900078564e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008024439264401051</v>
       </c>
       <c r="I14" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>2.788876504994486e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.036113616007921e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>3.412487014431599e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002959200337661983</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003718085394498846</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012256262773</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003876371987240473</v>
       </c>
       <c r="P14" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3781856883516</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.450305494627</v>
+        <v>192.9786044063662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_10</t>
+          <t>model_34_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999850780531621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991395286017514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.999864867655715</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999558498273367</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.999945679427826</v>
       </c>
       <c r="G15" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.39289823754868e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008032122799360308</v>
       </c>
       <c r="I15" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>3.15736142490147e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.08206571007455e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>3.61971356748801e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002915055206218007</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003732155191774158</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012349197383</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00389104076491429</v>
       </c>
       <c r="P15" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3630776511398</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.450305494627</v>
+        <v>192.9634963691545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_9</t>
+          <t>model_34_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999848726853794</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991386689972216</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9998495322886199</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999553776397835</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999426632868365</v>
       </c>
       <c r="G16" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.412068418600338e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008040146830322733</v>
       </c>
       <c r="I16" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>3.515671618948089e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.125723537513197e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>3.820697578230643e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000287510077653183</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003757749883374807</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012519156927</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003917725075524695</v>
       </c>
       <c r="P16" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3357397439474</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.450305494627</v>
+        <v>192.936158461962</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_8</t>
+          <t>model_34_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999846017317933</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991378199624302</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.999834773934262</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999549353796903</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999397690686443</v>
       </c>
       <c r="G17" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.437360746516472e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008048072197416696</v>
       </c>
       <c r="I17" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>3.860499935154977e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.166614312173548e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>4.013557123664262e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002839273844049747</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003791254075522335</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012743394378</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003952655610495182</v>
       </c>
       <c r="P17" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3002336959236</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.450305494627</v>
+        <v>192.9006524139382</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_7</t>
+          <t>model_34_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999842885269238</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991369799000149</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9998207461570847</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999545228356267</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999370235490936</v>
       </c>
       <c r="G18" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.466597046266018e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008055913811319256</v>
       </c>
       <c r="I18" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>4.188258346888408e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.204757582613603e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>4.196507964751006e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002807053349865139</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003829617534775526</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000013002598408</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003992652281632089</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8498867766124</v>
+        <v>128.2599613645916</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.450305494627</v>
+        <v>192.8603800826062</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_6</t>
+          <t>model_34_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999839491711686</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991361562291556</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9998074808122571</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999541316189086</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999344230131529</v>
       </c>
       <c r="G19" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.498274416409995e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000806360241724089</v>
       </c>
       <c r="I19" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>4.498202559493917e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.240928955315098e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>4.369797656857972e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002778030768630982</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003870754986317262</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001328344455</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004035541039652222</v>
       </c>
       <c r="P19" t="n">
-        <v>129.8498867766124</v>
+        <v>128.2172228162549</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.450305494627</v>
+        <v>192.8176415342696</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_5</t>
+          <t>model_34_3_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999835971049064</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991353688660806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9997950400522767</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999997107757518</v>
+        <v>0.999953753255603</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999319829186394</v>
       </c>
       <c r="G20" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.53113825660049e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008070952105933855</v>
       </c>
       <c r="I20" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>4.788880382530677e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.2759119187473e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>4.532396150638988e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002751900998890012</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003912976177541195</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000013574809733</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004079559674396472</v>
       </c>
       <c r="P20" t="n">
-        <v>129.8498867766124</v>
+        <v>128.1738280952069</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.450305494627</v>
+        <v>192.7742468132216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_4</t>
+          <t>model_34_3_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999832462100974</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991346141522448</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9997834842312303</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999534144667043</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999297219443133</v>
       </c>
       <c r="G21" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.563892746775409e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008077997028309455</v>
       </c>
       <c r="I21" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>5.058881645352032e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.307235885620317e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>4.683058765486175e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002728471115798718</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.0039546083836145</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000013865205437</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004122964249672866</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8498867766124</v>
+        <v>128.1314948028582</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.450305494627</v>
+        <v>192.7319135208729</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_3</t>
+          <t>model_34_3_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999828982878927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991339114702564</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.999772731185531</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999530957051154</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999276156046037</v>
       </c>
       <c r="G22" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.596369757384311e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008084556256229536</v>
       </c>
       <c r="I22" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>5.310126096640973e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.336708154325867e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>4.82341712548342e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002707319174156422</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003995459619848899</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000014153141054</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00416555460760748</v>
       </c>
       <c r="P22" t="n">
-        <v>129.8498867766124</v>
+        <v>128.0903866304332</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.450305494627</v>
+        <v>192.6908053484479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_2</t>
+          <t>model_34_3_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999825581928453</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991332649557181</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.999762725781901</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999527914761561</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.99992565042171</v>
       </c>
       <c r="G23" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.628116137206483e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000809059118565769</v>
       </c>
       <c r="I23" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>5.543901923065798e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.364836755581749e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>4.954369339323773e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002688436204468174</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004034992115489798</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000014434599025</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004206770083431358</v>
       </c>
       <c r="P23" t="n">
-        <v>129.8498867766124</v>
+        <v>128.0510037251677</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.450305494627</v>
+        <v>192.6514224431823</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_1</t>
+          <t>model_34_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999822336181853</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991326460977826</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9997535612424754</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999525132798566</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999238472540504</v>
       </c>
       <c r="G24" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.658413756998993e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008096367952837697</v>
       </c>
       <c r="I24" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>5.75803099344164e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.390558412073555e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>5.07452548239571e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002675492698287778</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004072362652071882</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000014703212536</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004245731561123418</v>
       </c>
       <c r="P24" t="n">
-        <v>129.8498867766124</v>
+        <v>128.0141277750418</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.450305494627</v>
+        <v>192.6145464930564</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_3_11</t>
+          <t>model_34_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999819269565697</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991320681138274</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9997451350274927</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999522559458025</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999221972055276</v>
       </c>
       <c r="G25" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.687039272728107e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008101763179354812</v>
       </c>
       <c r="I25" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>5.954909144892576e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.414351173337987e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>5.184478356342411e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002664975294560235</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004107358363629971</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001495700146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004282217112573644</v>
       </c>
       <c r="P25" t="n">
-        <v>129.8498867766124</v>
+        <v>127.9799007641039</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.450305494627</v>
+        <v>192.5803194821185</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999816365815198</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991315410609583</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999659951297387</v>
+        <v>0.9997373895468116</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999997107757518</v>
+        <v>0.9999520210222439</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999844763200907</v>
+        <v>0.9999206740510572</v>
       </c>
       <c r="G26" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.714144509034043e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008106682986538781</v>
       </c>
       <c r="I26" t="n">
-        <v>3.713396023316607e-05</v>
+        <v>6.135881968602704e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>4.260564270557051e-06</v>
+        <v>4.43607189027948e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.069726225186156e-05</v>
+        <v>5.285975499712773e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002655825692893192</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004140222831000818</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000015197311846</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004316480688359294</v>
       </c>
       <c r="P26" t="n">
-        <v>129.8498867766124</v>
+        <v>127.9480226747205</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.450305494627</v>
+        <v>192.5484413927351</v>
       </c>
     </row>
   </sheetData>
